--- a/MavenActitimeProjt/src/test/resources/testdata.xlsx
+++ b/MavenActitimeProjt/src/test/resources/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C04BC03D-1E83-4D06-8CC8-DBF7BE9ECE94}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{27B7DB5F-AD67-4BDF-80B9-87DFCCED7093}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="2895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="2175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readsinglecell" sheetId="1" r:id="rId1"/>
@@ -1511,7 +1511,7 @@
     <t>Customer created</t>
   </si>
   <si>
-    <t>HDFCoar16</t>
+    <t>HDFCoar1414</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1848,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MavenActitimeProjt/src/test/resources/testdata.xlsx
+++ b/MavenActitimeProjt/src/test/resources/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{27B7DB5F-AD67-4BDF-80B9-87DFCCED7093}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{54E4ECAE-EF9E-4B8F-86E4-9ABB11E1DFB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14970" windowHeight="2175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="2175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readsinglecell" sheetId="1" r:id="rId1"/>
@@ -1511,7 +1511,7 @@
     <t>Customer created</t>
   </si>
   <si>
-    <t>HDFCoar1414</t>
+    <t>HDFCoar1717</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1848,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
